--- a/results/DRSA/FileVC_DRSA_DOMApriori_OLD0.xlsx
+++ b/results/DRSA/FileVC_DRSA_DOMApriori_OLD0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="155">
   <si>
     <t>name</t>
   </si>
@@ -422,102 +422,42 @@
     <t>Reguła 12</t>
   </si>
   <si>
-    <t>Reguła 13</t>
-  </si>
-  <si>
-    <t>Reguła 14</t>
-  </si>
-  <si>
-    <t>Reguła 15</t>
-  </si>
-  <si>
-    <t>Reguła 16</t>
-  </si>
-  <si>
-    <t>Reguła 17</t>
-  </si>
-  <si>
-    <t>Reguła 18</t>
-  </si>
-  <si>
-    <t>Reguła 19</t>
-  </si>
-  <si>
-    <t>Reguła 20</t>
-  </si>
-  <si>
-    <t>Reguła 21</t>
-  </si>
-  <si>
-    <t>Reguła 22</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a7', 'a1', 'a23', 'a13', 'a3']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  32.0) =&gt; (class &lt;= 1) ['a15', 'a14', 'a19', 'a22', 'a18', 'a4', 'a23', 'a8', 'a13', 'a21', 'a17', 'a10', 'a16', 'a2', 'a6', 'a5', 'a3', 'a20']</t>
+    <t>(attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a3', 'a7', 'a1', 'a13', 'a23']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  42.0) =&gt; (class &lt;= 1) ['a14', 'a3']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  33.0) =&gt; (class &lt;= 1) ['a18', 'a2', 'a22', 'a20', 'a19', 'a3', 'a15', 'a10', 'a5', 'a4', 'a17', 'a8', 'a13', 'a14', 'a23']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  40.0) =&gt; (class &lt;= 1) ['a20', 'a15', 'a3', 'a14', 'a23']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  32.0) =&gt; (class &lt;= 1) ['a18', 'a2', 'a22', 'a20', 'a19', 'a3', 'a15', 'a10', 'a5', 'a21', 'a6', 'a4', 'a17', 'a16', 'a8', 'a13', 'a14', 'a23']</t>
   </si>
   <si>
     <t>(sperm &gt;=  3.0) =&gt; (class &lt;= 1) ['a22', 'a25']</t>
   </si>
   <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a1', 'a3', 'a7']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  1.0) &amp; (attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a7', 'a1', 'a23', 'a13', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a15', 'a24', 'a7', 'a9', 'a11', 'a1', 'a21', 'a17', 'a10', 'a2', 'a22', 'a3']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  3.0) &amp; (frozen_embryos &lt;=  4.0) =&gt; (class &lt;= 1) ['a1', 'a23', 'a3']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  3.0) &amp; (frozen_embryos &lt;=  5.0) =&gt; (class &lt;= 1) ['a7', 'a1', 'a23', 'a13', 'a3']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  3.0) &amp; (frozen_embryos &lt;=  6.0) =&gt; (class &lt;= 1) ['a7', 'a1', 'a23', 'a13', 'a3']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  3.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a7', 'a1', 'a23', 'a13', 'a3']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  3.0) &amp; (frozen_embryos &lt;=  10.0) =&gt; (class &lt;= 1) ['a7', 'a1', 'a23', 'a13', 'a3']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  3.0) &amp; (cleavage_stage &gt;=  5.0) =&gt; (class &lt;= 1) ['a1', 'a23', 'a3', 'a7']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  3.0) &amp; (cleavage_stage &gt;=  4.0) =&gt; (class &lt;= 1) ['a1', 'a23', 'a3', 'a7']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  32.0) =&gt; (class &gt;= 2) ['a24', 'a9', 'a12', 'a11', 'a1', 'a21', 'a16', 'a6', 'a7', 'a25']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a6', 'a25']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  31.0) =&gt; (class &gt;= 2) ['a24', 'a9', 'a12', 'a11', 'a1', 'a7', 'a25']</t>
-  </si>
-  <si>
-    <t>(pregnancy &gt;=  0.0) &amp; (frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a6', 'a25']</t>
-  </si>
-  <si>
-    <t>(attempts &lt;=  1.0) &amp; (frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a6', 'a25']</t>
-  </si>
-  <si>
-    <t>(endometrium &lt;=  2.0) &amp; (frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a6', 'a25']</t>
+    <t>(pregnancy &lt;=  0.0) &amp; (attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a7', 'a3', 'a1']</t>
+  </si>
+  <si>
+    <t>(pregnancy &lt;=  0.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a22', 'a2', 'a11', 'a24', 'a3', 'a15', 'a10', 'a7', 'a1', 'a9', 'a17', 'a21']</t>
+  </si>
+  <si>
+    <t>(attempts &gt;=  3.0) &amp; (cleavage_stage &gt;=  4.0) =&gt; (class &lt;= 1) ['a7', 'a3', 'a1', 'a23']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  32.0) =&gt; (class &gt;= 2) ['a11', 'a25', 'a24', 'a7', 'a6', 'a1', 'a12', 'a9', 'a16', 'a21']</t>
+  </si>
+  <si>
+    <t>(frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a25', 'a6']</t>
   </si>
   <si>
     <t>(sperm &lt;=  2.0) &amp; (frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a6']</t>
   </si>
   <si>
-    <t>(sperm &lt;=  1.0) &amp; (frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a6']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &gt;=  8.0) &amp; (cleavage_stage &lt;=  9.0) =&gt; (class &gt;= 2) ['a16', 'a6', 'a25']</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
@@ -527,10 +467,10 @@
     <t>coverage</t>
   </si>
   <si>
+    <t>f1_score</t>
+  </si>
+  <si>
     <t>not_classified</t>
-  </si>
-  <si>
-    <t>f1_score</t>
   </si>
   <si>
     <t>correct</t>
@@ -1753,23 +1693,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B1">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B2">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B3">
         <v>0.6470588235294118</v>
@@ -1777,7 +1717,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B4">
         <v>0.44</v>
@@ -1798,18 +1738,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2789,7 +2729,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2808,7 +2748,7 @@
         <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2816,7 +2756,7 @@
         <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2824,7 +2764,7 @@
         <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2832,7 +2772,7 @@
         <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2840,7 +2780,7 @@
         <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2848,7 +2788,7 @@
         <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2856,7 +2796,7 @@
         <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2864,7 +2804,7 @@
         <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2872,7 +2812,7 @@
         <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2880,7 +2820,7 @@
         <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2888,7 +2828,7 @@
         <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2896,87 +2836,7 @@
         <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>141</v>
-      </c>
-      <c r="B23" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2986,7 +2846,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2994,13 +2854,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3016,57 +2876,57 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.72</v>
+        <v>0.08</v>
       </c>
       <c r="C3">
-        <v>1.384615384615385</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>0.08</v>
+        <v>0.6</v>
       </c>
       <c r="C4">
-        <v>0.1538461538461539</v>
+        <v>1.153846153846154</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="C5">
-        <v>0.2307692307692308</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0.72</v>
       </c>
       <c r="C6">
-        <v>0.3846153846153846</v>
+        <v>1.384615384615385</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>0.48</v>
+        <v>0.08</v>
       </c>
       <c r="C7">
-        <v>0.9230769230769231</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3082,167 +2942,57 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.48</v>
       </c>
       <c r="C9">
-        <v>0.3846153846153846</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="C10">
-        <v>0.3846153846153846</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C11">
-        <v>0.3846153846153846</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="C12">
-        <v>0.3846153846153846</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="C13">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>0.16</v>
-      </c>
-      <c r="C14">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>0.4</v>
-      </c>
-      <c r="C15">
-        <v>1.428571428571429</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>0.12</v>
-      </c>
-      <c r="C16">
-        <v>0.4285714285714285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>0.28</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>0.12</v>
-      </c>
-      <c r="C18">
-        <v>0.4285714285714285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>0.12</v>
-      </c>
-      <c r="C19">
-        <v>0.4285714285714285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>0.12</v>
-      </c>
-      <c r="C20">
-        <v>0.4285714285714285</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>0.08</v>
-      </c>
-      <c r="C21">
         <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>0.08</v>
-      </c>
-      <c r="C22">
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>0.12</v>
-      </c>
-      <c r="C23">
-        <v>0.4285714285714285</v>
       </c>
     </row>
   </sheetData>

--- a/results/DRSA/FileVC_DRSA_DOMApriori_OLD0.xlsx
+++ b/results/DRSA/FileVC_DRSA_DOMApriori_OLD0.xlsx
@@ -422,34 +422,34 @@
     <t>Reguła 12</t>
   </si>
   <si>
-    <t>(attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a3', 'a7', 'a1', 'a13', 'a23']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  42.0) =&gt; (class &lt;= 1) ['a14', 'a3']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  33.0) =&gt; (class &lt;= 1) ['a18', 'a2', 'a22', 'a20', 'a19', 'a3', 'a15', 'a10', 'a5', 'a4', 'a17', 'a8', 'a13', 'a14', 'a23']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  40.0) =&gt; (class &lt;= 1) ['a20', 'a15', 'a3', 'a14', 'a23']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  32.0) =&gt; (class &lt;= 1) ['a18', 'a2', 'a22', 'a20', 'a19', 'a3', 'a15', 'a10', 'a5', 'a21', 'a6', 'a4', 'a17', 'a16', 'a8', 'a13', 'a14', 'a23']</t>
+    <t>(attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a1', 'a13', 'a3', 'a7', 'a23']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  42.0) =&gt; (class &lt;= 1) ['a3', 'a14']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  33.0) =&gt; (class &lt;= 1) ['a23', 'a18', 'a4', 'a13', 'a5', 'a14', 'a20', 'a2', 'a22', 'a10', 'a19', 'a3', 'a8', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  40.0) =&gt; (class &lt;= 1) ['a14', 'a20', 'a3', 'a23', 'a15']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  32.0) =&gt; (class &lt;= 1) ['a23', 'a18', 'a4', 'a6', 'a5', 'a13', 'a14', 'a20', 'a2', 'a22', 'a10', 'a21', 'a19', 'a16', 'a3', 'a8', 'a15', 'a17']</t>
   </si>
   <si>
     <t>(sperm &gt;=  3.0) =&gt; (class &lt;= 1) ['a22', 'a25']</t>
   </si>
   <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a7', 'a3', 'a1']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a22', 'a2', 'a11', 'a24', 'a3', 'a15', 'a10', 'a7', 'a1', 'a9', 'a17', 'a21']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  3.0) &amp; (cleavage_stage &gt;=  4.0) =&gt; (class &lt;= 1) ['a7', 'a3', 'a1', 'a23']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  32.0) =&gt; (class &gt;= 2) ['a11', 'a25', 'a24', 'a7', 'a6', 'a1', 'a12', 'a9', 'a16', 'a21']</t>
+    <t>(pregnancy &lt;=  0.0) &amp; (attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a1', 'a7', 'a3']</t>
+  </si>
+  <si>
+    <t>(pregnancy &lt;=  0.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a1', 'a11', 'a24', 'a9', 'a2', 'a22', 'a10', 'a21', 'a3', 'a7', 'a15', 'a17']</t>
+  </si>
+  <si>
+    <t>(attempts &gt;=  3.0) &amp; (cleavage_stage &gt;=  4.0) =&gt; (class &lt;= 1) ['a1', 'a7', 'a23', 'a3']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  32.0) =&gt; (class &gt;= 2) ['a1', 'a11', 'a24', 'a6', 'a9', 'a21', 'a16', 'a25', 'a7', 'a12']</t>
   </si>
   <si>
     <t>(frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a25', 'a6']</t>
@@ -467,16 +467,16 @@
     <t>coverage</t>
   </si>
   <si>
+    <t>not_classified</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
     <t>f1_score</t>
-  </si>
-  <si>
-    <t>not_classified</t>
-  </si>
-  <si>
-    <t>correct</t>
-  </si>
-  <si>
-    <t>accuracy</t>
   </si>
   <si>
     <t>Obiekt</t>
@@ -1696,7 +1696,7 @@
         <v>147</v>
       </c>
       <c r="B1">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1704,7 +1704,7 @@
         <v>148</v>
       </c>
       <c r="B2">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/results/DRSA/FileVC_DRSA_DOMApriori_OLD0.xlsx
+++ b/results/DRSA/FileVC_DRSA_DOMApriori_OLD0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="169">
   <si>
     <t>name</t>
   </si>
@@ -335,13 +335,13 @@
     <t>objects</t>
   </si>
   <si>
-    <t>['a1', 'a3', 'a7', 'a8', 'a13', 'a14', 'a15', 'a17', 'a18', 'a20', 'a21', 'a22', 'a25']</t>
+    <t>['a1', 'a3', 'a7', 'a13', 'a14', 'a15', 'a22', 'a25']</t>
   </si>
   <si>
     <t>upper_approx_downward_union</t>
   </si>
   <si>
-    <t>['a1', 'a2', 'a3', 'a5', 'a7', 'a8', 'a10', 'a13', 'a14', 'a15', 'a17', 'a18', 'a19', 'a20', 'a21', 'a22', 'a23', 'a25']</t>
+    <t>['a1', 'a2', 'a3', 'a4', 'a5', 'a7', 'a8', 'a10', 'a13', 'a14', 'a15', 'a17', 'a18', 'a19', 'a20', 'a21', 'a22', 'a23', 'a25']</t>
   </si>
   <si>
     <t>boundaries_downward_union</t>
@@ -350,19 +350,19 @@
     <t>class</t>
   </si>
   <si>
-    <t>['a2', 'a5', 'a10', 'a19', 'a23']</t>
+    <t>['a2', 'a4', 'a5', 'a8', 'a10', 'a17', 'a18', 'a19', 'a20', 'a21', 'a23']</t>
   </si>
   <si>
     <t>lower_approx_upward_union</t>
   </si>
   <si>
-    <t>['a4', 'a6', 'a9', 'a11', 'a12', 'a16', 'a24']</t>
+    <t>['a6', 'a9', 'a11', 'a12', 'a16', 'a24']</t>
   </si>
   <si>
     <t>upper_approx_upward_union</t>
   </si>
   <si>
-    <t>['a2', 'a4', 'a5', 'a6', 'a9', 'a10', 'a11', 'a12', 'a16', 'a19', 'a23', 'a24']</t>
+    <t>['a2', 'a4', 'a5', 'a6', 'a8', 'a9', 'a10', 'a11', 'a12', 'a16', 'a17', 'a18', 'a19', 'a20', 'a21', 'a23', 'a24']</t>
   </si>
   <si>
     <t>boundaries_upward_union</t>
@@ -422,42 +422,84 @@
     <t>Reguła 12</t>
   </si>
   <si>
-    <t>(attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a1', 'a13', 'a3', 'a7', 'a23']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  42.0) =&gt; (class &lt;= 1) ['a3', 'a14']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  33.0) =&gt; (class &lt;= 1) ['a23', 'a18', 'a4', 'a13', 'a5', 'a14', 'a20', 'a2', 'a22', 'a10', 'a19', 'a3', 'a8', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  40.0) =&gt; (class &lt;= 1) ['a14', 'a20', 'a3', 'a23', 'a15']</t>
-  </si>
-  <si>
-    <t>(age &gt;=  32.0) =&gt; (class &lt;= 1) ['a23', 'a18', 'a4', 'a6', 'a5', 'a13', 'a14', 'a20', 'a2', 'a22', 'a10', 'a21', 'a19', 'a16', 'a3', 'a8', 'a15', 'a17']</t>
+    <t>Reguła 13</t>
+  </si>
+  <si>
+    <t>Reguła 14</t>
+  </si>
+  <si>
+    <t>Reguła 15</t>
+  </si>
+  <si>
+    <t>Reguła 16</t>
+  </si>
+  <si>
+    <t>Reguła 17</t>
+  </si>
+  <si>
+    <t>Reguła 18</t>
+  </si>
+  <si>
+    <t>Reguła 19</t>
+  </si>
+  <si>
+    <t>(age &gt;=  42.0) =&gt; (class &lt;= 1) ['a14', 'a3']</t>
   </si>
   <si>
     <t>(sperm &gt;=  3.0) =&gt; (class &lt;= 1) ['a22', 'a25']</t>
   </si>
   <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a1', 'a7', 'a3']</t>
-  </si>
-  <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (frozen_embryos &lt;=  7.0) =&gt; (class &lt;= 1) ['a1', 'a11', 'a24', 'a9', 'a2', 'a22', 'a10', 'a21', 'a3', 'a7', 'a15', 'a17']</t>
-  </si>
-  <si>
-    <t>(attempts &gt;=  3.0) &amp; (cleavage_stage &gt;=  4.0) =&gt; (class &lt;= 1) ['a1', 'a7', 'a23', 'a3']</t>
-  </si>
-  <si>
-    <t>(age &lt;=  32.0) =&gt; (class &gt;= 2) ['a1', 'a11', 'a24', 'a6', 'a9', 'a21', 'a16', 'a25', 'a7', 'a12']</t>
-  </si>
-  <si>
-    <t>(frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a25', 'a6']</t>
+    <t>(pregnancy &lt;=  0.0) &amp; (attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a7', 'a1', 'a3']</t>
+  </si>
+  <si>
+    <t>(pregnancy &lt;=  0.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a22']</t>
+  </si>
+  <si>
+    <t>(attempts &gt;=  3.0) &amp; (frozen_embryos &lt;=  2.0) =&gt; (class &lt;= 1) ['a3']</t>
+  </si>
+  <si>
+    <t>(attempts &gt;=  3.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a13']</t>
+  </si>
+  <si>
+    <t>(endometrium &gt;=  2.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a25']</t>
+  </si>
+  <si>
+    <t>(sperm &gt;=  2.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a22']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  40.0) &amp; (pregnancy &lt;=  0.0) =&gt; (class &lt;= 1) ['a15', 'a3']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  40.0) &amp; (frozen_embryos &lt;=  2.0) =&gt; (class &lt;= 1) ['a3']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  23.0) &amp; (frozen_embryos &lt;=  2.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a3']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  33.0) &amp; (pregnancy &lt;=  0.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a22', 'a3']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  22.0) =&gt; (class &gt;= 2) ['a11']</t>
   </si>
   <si>
     <t>(sperm &lt;=  2.0) &amp; (frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a6']</t>
   </si>
   <si>
+    <t>(age &lt;=  32.0) &amp; (pregnancy &gt;=  1.0) &amp; (endometrium &lt;=  1.0) =&gt; (class &gt;= 2) ['a12']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  32.0) &amp; (pregnancy &gt;=  1.0) &amp; (sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a16', 'a12']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  32.0) &amp; (sperm &lt;=  2.0) &amp; (cleavage_stage &lt;=  2.0) =&gt; (class &gt;= 2) ['a16']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  31.0) &amp; (attempts &lt;=  1.0) &amp; (endometrium &lt;=  1.0) =&gt; (class &gt;= 2) ['a11', 'a24', 'a12', 'a9']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  31.0) &amp; (attempts &lt;=  1.0) &amp; (sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a11', 'a24', 'a12', 'a9']</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
@@ -467,16 +509,16 @@
     <t>coverage</t>
   </si>
   <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>f1_score</t>
+  </si>
+  <si>
     <t>not_classified</t>
-  </si>
-  <si>
-    <t>accuracy</t>
-  </si>
-  <si>
-    <t>correct</t>
-  </si>
-  <si>
-    <t>f1_score</t>
   </si>
   <si>
     <t>Obiekt</t>
@@ -1693,31 +1735,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B1">
-        <v>0.32</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B2">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B3">
-        <v>0.6470588235294118</v>
+        <v>0.453475935828877</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B4">
         <v>0.44</v>
@@ -1738,18 +1780,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1792,9 +1834,6 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
       <c r="C6">
         <v>2</v>
       </c>
@@ -1803,6 +1842,9 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
       <c r="C7">
         <v>2</v>
       </c>
@@ -1811,6 +1853,9 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="C8">
         <v>1</v>
       </c>
@@ -1820,7 +1865,7 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1830,6 +1875,9 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
       <c r="C10">
         <v>2</v>
       </c>
@@ -1838,9 +1886,6 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
       <c r="C11">
         <v>1</v>
       </c>
@@ -1857,6 +1902,9 @@
       <c r="A13" t="s">
         <v>22</v>
       </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
       <c r="C13">
         <v>2</v>
       </c>
@@ -1865,9 +1913,6 @@
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
       <c r="C14">
         <v>1</v>
       </c>
@@ -1887,9 +1932,6 @@
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
       <c r="C16">
         <v>1</v>
       </c>
@@ -1898,6 +1940,9 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
       <c r="C17">
         <v>2</v>
       </c>
@@ -1906,9 +1951,6 @@
       <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
       <c r="C18">
         <v>1</v>
       </c>
@@ -1917,9 +1959,6 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
       <c r="C19">
         <v>1</v>
       </c>
@@ -1928,9 +1967,6 @@
       <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
       <c r="C20">
         <v>1</v>
       </c>
@@ -1939,9 +1975,6 @@
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
       <c r="C21">
         <v>1</v>
       </c>
@@ -1983,6 +2016,9 @@
       <c r="A25" t="s">
         <v>34</v>
       </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
       <c r="C25">
         <v>2</v>
       </c>
@@ -1990,9 +2026,6 @@
     <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>35</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2048,7 +2081,7 @@
         <v>42</v>
       </c>
       <c r="B5">
-        <v>0.55</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -2708,18 +2741,18 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.8</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="B22">
-        <v>0.7222222222222222</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.8</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C23">
-        <v>0.5833333333333334</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
   </sheetData>
@@ -2729,7 +2762,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2748,7 +2781,7 @@
         <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2756,7 +2789,7 @@
         <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2764,7 +2797,7 @@
         <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2772,7 +2805,7 @@
         <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2780,7 +2813,7 @@
         <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2788,7 +2821,7 @@
         <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2796,7 +2829,7 @@
         <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2804,7 +2837,7 @@
         <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2812,7 +2845,7 @@
         <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2820,7 +2853,7 @@
         <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2828,7 +2861,7 @@
         <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2836,7 +2869,63 @@
         <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2846,7 +2935,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2854,24 +2943,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="C2">
-        <v>0.3846153846153846</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2882,106 +2971,106 @@
         <v>0.08</v>
       </c>
       <c r="C3">
-        <v>0.1538461538461539</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.12</v>
       </c>
       <c r="C4">
-        <v>1.153846153846154</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="C5">
-        <v>0.3846153846153846</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0.72</v>
+        <v>0.04</v>
       </c>
       <c r="C6">
-        <v>1.384615384615385</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="C7">
-        <v>0.1538461538461539</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="C8">
-        <v>0.2307692307692308</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>0.48</v>
+        <v>0.04</v>
       </c>
       <c r="C9">
-        <v>0.9230769230769231</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="C10">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="C11">
-        <v>1.428571428571429</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="C12">
-        <v>0.4285714285714285</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2992,7 +3081,84 @@
         <v>0.08</v>
       </c>
       <c r="C13">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.04</v>
+      </c>
+      <c r="C14">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0.08</v>
+      </c>
+      <c r="C15">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0.04</v>
+      </c>
+      <c r="C16">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0.08</v>
+      </c>
+      <c r="C17">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0.04</v>
+      </c>
+      <c r="C18">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>0.16</v>
+      </c>
+      <c r="C19">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>0.16</v>
+      </c>
+      <c r="C20">
+        <v>0.6666666666666666</v>
       </c>
     </row>
   </sheetData>
